--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb3-Acvrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb3-Acvrl1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.999238666666667</v>
+        <v>2.434920666666667</v>
       </c>
       <c r="H2">
-        <v>8.997716</v>
+        <v>7.304762</v>
       </c>
       <c r="I2">
-        <v>0.02939707704242819</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="J2">
-        <v>0.02939707704242818</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.73444633333333</v>
+        <v>22.78905733333334</v>
       </c>
       <c r="N2">
-        <v>86.203339</v>
+        <v>68.36717200000001</v>
       </c>
       <c r="O2">
-        <v>0.504929020477927</v>
+        <v>0.387338358085063</v>
       </c>
       <c r="P2">
-        <v>0.504929020477927</v>
+        <v>0.387338358085063</v>
       </c>
       <c r="Q2">
-        <v>86.18146250819156</v>
+        <v>55.4895466747849</v>
       </c>
       <c r="R2">
-        <v>775.633162573724</v>
+        <v>499.4059200730641</v>
       </c>
       <c r="S2">
-        <v>0.01484343731594742</v>
+        <v>0.009074597621427071</v>
       </c>
       <c r="T2">
-        <v>0.01484343731594742</v>
+        <v>0.009074597621427073</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.999238666666667</v>
+        <v>2.434920666666667</v>
       </c>
       <c r="H3">
-        <v>8.997716</v>
+        <v>7.304762</v>
       </c>
       <c r="I3">
-        <v>0.02939707704242819</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="J3">
-        <v>0.02939707704242818</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>49.155044</v>
       </c>
       <c r="O3">
-        <v>0.2879216571700245</v>
+        <v>0.2784908820648457</v>
       </c>
       <c r="P3">
-        <v>0.2879216571700245</v>
+        <v>0.2784908820648457</v>
       </c>
       <c r="Q3">
-        <v>49.14256954216712</v>
+        <v>39.89621083550311</v>
       </c>
       <c r="R3">
-        <v>442.283125879504</v>
+        <v>359.0658975195281</v>
       </c>
       <c r="S3">
-        <v>0.008464055138010807</v>
+        <v>0.006524509239076658</v>
       </c>
       <c r="T3">
-        <v>0.008464055138010806</v>
+        <v>0.006524509239076658</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.999238666666667</v>
+        <v>2.434920666666667</v>
       </c>
       <c r="H4">
-        <v>8.997716</v>
+        <v>7.304762</v>
       </c>
       <c r="I4">
-        <v>0.02939707704242819</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="J4">
-        <v>0.02939707704242818</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.486482333333334</v>
+        <v>11.91569833333333</v>
       </c>
       <c r="N4">
-        <v>16.459447</v>
+        <v>35.747095</v>
       </c>
       <c r="O4">
-        <v>0.09640986703912194</v>
+        <v>0.2025273340779806</v>
       </c>
       <c r="P4">
-        <v>0.09640986703912194</v>
+        <v>0.2025273340779806</v>
       </c>
       <c r="Q4">
-        <v>16.45526995811689</v>
+        <v>29.01378012959889</v>
       </c>
       <c r="R4">
-        <v>148.097429623052</v>
+        <v>261.12402116639</v>
       </c>
       <c r="S4">
-        <v>0.002834168288999326</v>
+        <v>0.004744828457434624</v>
       </c>
       <c r="T4">
-        <v>0.002834168288999325</v>
+        <v>0.004744828457434624</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.999238666666667</v>
+        <v>2.434920666666667</v>
       </c>
       <c r="H5">
-        <v>8.997716</v>
+        <v>7.304762</v>
       </c>
       <c r="I5">
-        <v>0.02939707704242819</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="J5">
-        <v>0.02939707704242818</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5741953333333334</v>
+        <v>0.4016486666666667</v>
       </c>
       <c r="N5">
-        <v>1.722586</v>
+        <v>1.204946</v>
       </c>
       <c r="O5">
-        <v>0.01008990686160069</v>
+        <v>0.006826694619183082</v>
       </c>
       <c r="P5">
-        <v>0.01008990686160069</v>
+        <v>0.006826694619183082</v>
       </c>
       <c r="Q5">
-        <v>1.722148845952889</v>
+        <v>0.9779826392057779</v>
       </c>
       <c r="R5">
-        <v>15.499339613576</v>
+        <v>8.801843752852001</v>
       </c>
       <c r="S5">
-        <v>0.0002966137693614004</v>
+        <v>0.0001599364107900801</v>
       </c>
       <c r="T5">
-        <v>0.0002966137693614003</v>
+        <v>0.0001599364107900801</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.999238666666667</v>
+        <v>2.434920666666667</v>
       </c>
       <c r="H6">
-        <v>8.997716</v>
+        <v>7.304762</v>
       </c>
       <c r="I6">
-        <v>0.02939707704242819</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="J6">
-        <v>0.02939707704242818</v>
+        <v>0.02342808924551234</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.727753666666666</v>
+        <v>7.343594</v>
       </c>
       <c r="N6">
-        <v>17.183261</v>
+        <v>22.030782</v>
       </c>
       <c r="O6">
-        <v>0.1006495484513258</v>
+        <v>0.1248167311529276</v>
       </c>
       <c r="P6">
-        <v>0.1006495484513258</v>
+        <v>0.1248167311529276</v>
       </c>
       <c r="Q6">
-        <v>17.17890027020844</v>
+        <v>17.88106879820933</v>
       </c>
       <c r="R6">
-        <v>154.610102431876</v>
+        <v>160.929619183884</v>
       </c>
       <c r="S6">
-        <v>0.002958802530109234</v>
+        <v>0.002924217516783908</v>
       </c>
       <c r="T6">
-        <v>0.002958802530109233</v>
+        <v>0.002924217516783908</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>284.701828</v>
       </c>
       <c r="I7">
-        <v>0.9301695643467897</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="J7">
-        <v>0.9301695643467893</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.73444633333333</v>
+        <v>22.78905733333334</v>
       </c>
       <c r="N7">
-        <v>86.203339</v>
+        <v>68.36717200000001</v>
       </c>
       <c r="O7">
-        <v>0.504929020477927</v>
+        <v>0.387338358085063</v>
       </c>
       <c r="P7">
-        <v>0.504929020477927</v>
+        <v>0.387338358085063</v>
       </c>
       <c r="Q7">
-        <v>2726.916465889299</v>
+        <v>2162.695427065602</v>
       </c>
       <c r="R7">
-        <v>24542.24819300369</v>
+        <v>19464.25884359042</v>
       </c>
       <c r="S7">
-        <v>0.4696696070040046</v>
+        <v>0.3536808634127626</v>
       </c>
       <c r="T7">
-        <v>0.4696696070040044</v>
+        <v>0.3536808634127627</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>284.701828</v>
       </c>
       <c r="I8">
-        <v>0.9301695643467897</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="J8">
-        <v>0.9301695643467893</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>49.155044</v>
       </c>
       <c r="O8">
-        <v>0.2879216571700245</v>
+        <v>0.2784908820648457</v>
       </c>
       <c r="P8">
-        <v>0.2879216571700245</v>
+        <v>0.2784908820648457</v>
       </c>
       <c r="Q8">
         <v>1554.94787580227</v>
@@ -948,10 +948,10 @@
         <v>13994.53088222043</v>
       </c>
       <c r="S8">
-        <v>0.2678159624158474</v>
+        <v>0.2542916123985988</v>
       </c>
       <c r="T8">
-        <v>0.2678159624158474</v>
+        <v>0.2542916123985988</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>284.701828</v>
       </c>
       <c r="I9">
-        <v>0.9301695643467897</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="J9">
-        <v>0.9301695643467893</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.486482333333334</v>
+        <v>11.91569833333333</v>
       </c>
       <c r="N9">
-        <v>16.459447</v>
+        <v>35.747095</v>
       </c>
       <c r="O9">
-        <v>0.09640986703912194</v>
+        <v>0.2025273340779806</v>
       </c>
       <c r="P9">
-        <v>0.09640986703912194</v>
+        <v>0.2025273340779806</v>
       </c>
       <c r="Q9">
-        <v>520.6705165299018</v>
+        <v>1130.807032465518</v>
       </c>
       <c r="R9">
-        <v>4686.034648769116</v>
+        <v>10177.26329218966</v>
       </c>
       <c r="S9">
-        <v>0.08967752402251197</v>
+        <v>0.1849288635794099</v>
       </c>
       <c r="T9">
-        <v>0.08967752402251193</v>
+        <v>0.1849288635794099</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>284.701828</v>
       </c>
       <c r="I10">
-        <v>0.9301695643467897</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="J10">
-        <v>0.9301695643467893</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5741953333333334</v>
+        <v>0.4016486666666667</v>
       </c>
       <c r="N10">
-        <v>1.722586</v>
+        <v>1.204946</v>
       </c>
       <c r="O10">
-        <v>0.01008990686160069</v>
+        <v>0.006826694619183082</v>
       </c>
       <c r="P10">
-        <v>0.01008990686160069</v>
+        <v>0.006826694619183082</v>
       </c>
       <c r="Q10">
-        <v>54.49148700968978</v>
+        <v>38.11670320458755</v>
       </c>
       <c r="R10">
-        <v>490.423383087208</v>
+        <v>343.050328841288</v>
       </c>
       <c r="S10">
-        <v>0.009385324269754799</v>
+        <v>0.006233493783328564</v>
       </c>
       <c r="T10">
-        <v>0.009385324269754795</v>
+        <v>0.006233493783328564</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>284.701828</v>
       </c>
       <c r="I11">
-        <v>0.9301695643467897</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="J11">
-        <v>0.9301695643467893</v>
+        <v>0.9131057021083648</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.727753666666666</v>
+        <v>7.343594</v>
       </c>
       <c r="N11">
-        <v>17.183261</v>
+        <v>22.030782</v>
       </c>
       <c r="O11">
-        <v>0.1006495484513258</v>
+        <v>0.1248167311529276</v>
       </c>
       <c r="P11">
-        <v>0.1006495484513258</v>
+        <v>0.1248167311529276</v>
       </c>
       <c r="Q11">
-        <v>543.5673130779007</v>
+        <v>696.9115452966106</v>
       </c>
       <c r="R11">
-        <v>4892.105817701107</v>
+        <v>6272.203907669496</v>
       </c>
       <c r="S11">
-        <v>0.09362114663467082</v>
+        <v>0.113970868934265</v>
       </c>
       <c r="T11">
-        <v>0.09362114663467079</v>
+        <v>0.113970868934265</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.234972</v>
+        <v>0.8952243333333333</v>
       </c>
       <c r="H12">
-        <v>0.704916</v>
+        <v>2.685673</v>
       </c>
       <c r="I12">
-        <v>0.002303081133083142</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="J12">
-        <v>0.002303081133083141</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.73444633333333</v>
+        <v>22.78905733333334</v>
       </c>
       <c r="N12">
-        <v>86.203339</v>
+        <v>68.36717200000001</v>
       </c>
       <c r="O12">
-        <v>0.504929020477927</v>
+        <v>0.387338358085063</v>
       </c>
       <c r="P12">
-        <v>0.504929020477927</v>
+        <v>0.387338358085063</v>
       </c>
       <c r="Q12">
-        <v>6.751790323836</v>
+        <v>20.40131865852845</v>
       </c>
       <c r="R12">
-        <v>60.766112914524</v>
+        <v>183.611867926756</v>
       </c>
       <c r="S12">
-        <v>0.001162892500608865</v>
+        <v>0.003336371782917897</v>
       </c>
       <c r="T12">
-        <v>0.001162892500608864</v>
+        <v>0.003336371782917898</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.234972</v>
+        <v>0.8952243333333333</v>
       </c>
       <c r="H13">
-        <v>0.704916</v>
+        <v>2.685673</v>
       </c>
       <c r="I13">
-        <v>0.002303081133083142</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="J13">
-        <v>0.002303081133083141</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>49.155044</v>
       </c>
       <c r="O13">
-        <v>0.2879216571700245</v>
+        <v>0.2784908820648457</v>
       </c>
       <c r="P13">
-        <v>0.2879216571700245</v>
+        <v>0.2784908820648457</v>
       </c>
       <c r="Q13">
-        <v>3.850019666256</v>
+        <v>14.66826383162356</v>
       </c>
       <c r="R13">
-        <v>34.650176996304</v>
+        <v>132.014374484612</v>
       </c>
       <c r="S13">
-        <v>0.0006631069364343158</v>
+        <v>0.002398804820970036</v>
       </c>
       <c r="T13">
-        <v>0.0006631069364343157</v>
+        <v>0.002398804820970036</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.234972</v>
+        <v>0.8952243333333333</v>
       </c>
       <c r="H14">
-        <v>0.704916</v>
+        <v>2.685673</v>
       </c>
       <c r="I14">
-        <v>0.002303081133083142</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="J14">
-        <v>0.002303081133083141</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.486482333333334</v>
+        <v>11.91569833333333</v>
       </c>
       <c r="N14">
-        <v>16.459447</v>
+        <v>35.747095</v>
       </c>
       <c r="O14">
-        <v>0.09640986703912194</v>
+        <v>0.2025273340779806</v>
       </c>
       <c r="P14">
-        <v>0.09640986703912194</v>
+        <v>0.2025273340779806</v>
       </c>
       <c r="Q14">
-        <v>1.289169726828</v>
+        <v>10.66722309665944</v>
       </c>
       <c r="R14">
-        <v>11.602527541452</v>
+        <v>96.005007869935</v>
       </c>
       <c r="S14">
-        <v>0.000222039745820856</v>
+        <v>0.001744486360782708</v>
       </c>
       <c r="T14">
-        <v>0.0002220397458208559</v>
+        <v>0.001744486360782708</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.234972</v>
+        <v>0.8952243333333333</v>
       </c>
       <c r="H15">
-        <v>0.704916</v>
+        <v>2.685673</v>
       </c>
       <c r="I15">
-        <v>0.002303081133083142</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="J15">
-        <v>0.002303081133083141</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.5741953333333334</v>
+        <v>0.4016486666666667</v>
       </c>
       <c r="N15">
-        <v>1.722586</v>
+        <v>1.204946</v>
       </c>
       <c r="O15">
-        <v>0.01008990686160069</v>
+        <v>0.006826694619183082</v>
       </c>
       <c r="P15">
-        <v>0.01008990686160069</v>
+        <v>0.006826694619183082</v>
       </c>
       <c r="Q15">
-        <v>0.134919825864</v>
+        <v>0.3595656598508889</v>
       </c>
       <c r="R15">
-        <v>1.214278432776</v>
+        <v>3.236090938658</v>
       </c>
       <c r="S15">
-        <v>2.323787412751868E-05</v>
+        <v>5.880231281673884E-05</v>
       </c>
       <c r="T15">
-        <v>2.323787412751867E-05</v>
+        <v>5.880231281673884E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.234972</v>
+        <v>0.8952243333333333</v>
       </c>
       <c r="H16">
-        <v>0.704916</v>
+        <v>2.685673</v>
       </c>
       <c r="I16">
-        <v>0.002303081133083142</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="J16">
-        <v>0.002303081133083141</v>
+        <v>0.008613584772270864</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.727753666666666</v>
+        <v>7.343594</v>
       </c>
       <c r="N16">
-        <v>17.183261</v>
+        <v>22.030782</v>
       </c>
       <c r="O16">
-        <v>0.1006495484513258</v>
+        <v>0.1248167311529276</v>
       </c>
       <c r="P16">
-        <v>0.1006495484513258</v>
+        <v>0.1248167311529276</v>
       </c>
       <c r="Q16">
-        <v>1.345861734564</v>
+        <v>6.574164042920667</v>
       </c>
       <c r="R16">
-        <v>12.112755611076</v>
+        <v>59.167476386286</v>
       </c>
       <c r="S16">
-        <v>0.000231804076091586</v>
+        <v>0.001075119494783484</v>
       </c>
       <c r="T16">
-        <v>0.0002318040760915859</v>
+        <v>0.001075119494783484</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.748144</v>
+        <v>5.136966666666667</v>
       </c>
       <c r="H17">
-        <v>11.244432</v>
+        <v>15.4109</v>
       </c>
       <c r="I17">
-        <v>0.03673748246803354</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="J17">
-        <v>0.03673748246803353</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>28.73444633333333</v>
+        <v>22.78905733333334</v>
       </c>
       <c r="N17">
-        <v>86.203339</v>
+        <v>68.36717200000001</v>
       </c>
       <c r="O17">
-        <v>0.504929020477927</v>
+        <v>0.387338358085063</v>
       </c>
       <c r="P17">
-        <v>0.504929020477927</v>
+        <v>0.387338358085063</v>
       </c>
       <c r="Q17">
-        <v>107.7008426176053</v>
+        <v>117.0666278860889</v>
       </c>
       <c r="R17">
-        <v>969.307583558448</v>
+        <v>1053.5996509748</v>
       </c>
       <c r="S17">
-        <v>0.01854982103740919</v>
+        <v>0.01914473277624246</v>
       </c>
       <c r="T17">
-        <v>0.01854982103740918</v>
+        <v>0.01914473277624247</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.748144</v>
+        <v>5.136966666666667</v>
       </c>
       <c r="H18">
-        <v>11.244432</v>
+        <v>15.4109</v>
       </c>
       <c r="I18">
-        <v>0.03673748246803354</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="J18">
-        <v>0.03673748246803353</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>49.155044</v>
       </c>
       <c r="O18">
-        <v>0.2879216571700245</v>
+        <v>0.2784908820648457</v>
       </c>
       <c r="P18">
-        <v>0.2879216571700245</v>
+        <v>0.2784908820648457</v>
       </c>
       <c r="Q18">
-        <v>61.41339441277866</v>
+        <v>84.16927417551112</v>
       </c>
       <c r="R18">
-        <v>552.720549715008</v>
+        <v>757.5234675796</v>
       </c>
       <c r="S18">
-        <v>0.01057751683245094</v>
+        <v>0.01376479609225961</v>
       </c>
       <c r="T18">
-        <v>0.01057751683245094</v>
+        <v>0.01376479609225961</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.748144</v>
+        <v>5.136966666666667</v>
       </c>
       <c r="H19">
-        <v>11.244432</v>
+        <v>15.4109</v>
       </c>
       <c r="I19">
-        <v>0.03673748246803354</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="J19">
-        <v>0.03673748246803353</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.486482333333334</v>
+        <v>11.91569833333333</v>
       </c>
       <c r="N19">
-        <v>16.459447</v>
+        <v>35.747095</v>
       </c>
       <c r="O19">
-        <v>0.09640986703912194</v>
+        <v>0.2025273340779806</v>
       </c>
       <c r="P19">
-        <v>0.09640986703912194</v>
+        <v>0.2025273340779806</v>
       </c>
       <c r="Q19">
-        <v>20.56412583878933</v>
+        <v>61.21054514838889</v>
       </c>
       <c r="R19">
-        <v>185.077132549104</v>
+        <v>550.8949063355</v>
       </c>
       <c r="S19">
-        <v>0.003541855800095187</v>
+        <v>0.01001019292273714</v>
       </c>
       <c r="T19">
-        <v>0.003541855800095186</v>
+        <v>0.01001019292273714</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.748144</v>
+        <v>5.136966666666667</v>
       </c>
       <c r="H20">
-        <v>11.244432</v>
+        <v>15.4109</v>
       </c>
       <c r="I20">
-        <v>0.03673748246803354</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="J20">
-        <v>0.03673748246803353</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.5741953333333334</v>
+        <v>0.4016486666666667</v>
       </c>
       <c r="N20">
-        <v>1.722586</v>
+        <v>1.204946</v>
       </c>
       <c r="O20">
-        <v>0.01008990686160069</v>
+        <v>0.006826694619183082</v>
       </c>
       <c r="P20">
-        <v>0.01008990686160069</v>
+        <v>0.006826694619183082</v>
       </c>
       <c r="Q20">
-        <v>2.152166793461333</v>
+        <v>2.063255812377778</v>
       </c>
       <c r="R20">
-        <v>19.369501141152</v>
+        <v>18.5693023114</v>
       </c>
       <c r="S20">
-        <v>0.0003706777764321467</v>
+        <v>0.0003374188006460506</v>
       </c>
       <c r="T20">
-        <v>0.0003706777764321466</v>
+        <v>0.0003374188006460506</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.748144</v>
+        <v>5.136966666666667</v>
       </c>
       <c r="H21">
-        <v>11.244432</v>
+        <v>15.4109</v>
       </c>
       <c r="I21">
-        <v>0.03673748246803354</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="J21">
-        <v>0.03673748246803353</v>
+        <v>0.04942637974429093</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.727753666666666</v>
+        <v>7.343594</v>
       </c>
       <c r="N21">
-        <v>17.183261</v>
+        <v>22.030782</v>
       </c>
       <c r="O21">
-        <v>0.1006495484513258</v>
+        <v>0.1248167311529276</v>
       </c>
       <c r="P21">
-        <v>0.1006495484513258</v>
+        <v>0.1248167311529276</v>
       </c>
       <c r="Q21">
-        <v>21.46844553919466</v>
+        <v>37.72379759153333</v>
       </c>
       <c r="R21">
-        <v>193.216009852752</v>
+        <v>339.5141783238</v>
       </c>
       <c r="S21">
-        <v>0.003697611021646074</v>
+        <v>0.006169239152405667</v>
       </c>
       <c r="T21">
-        <v>0.003697611021646073</v>
+        <v>0.006169239152405668</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1421</v>
+        <v>0.5639586666666667</v>
       </c>
       <c r="H22">
-        <v>0.4263</v>
+        <v>1.691876</v>
       </c>
       <c r="I22">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="J22">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>28.73444633333333</v>
+        <v>22.78905733333334</v>
       </c>
       <c r="N22">
-        <v>86.203339</v>
+        <v>68.36717200000001</v>
       </c>
       <c r="O22">
-        <v>0.504929020477927</v>
+        <v>0.387338358085063</v>
       </c>
       <c r="P22">
-        <v>0.504929020477927</v>
+        <v>0.387338358085063</v>
       </c>
       <c r="Q22">
-        <v>4.083164823966667</v>
+        <v>12.85208638829689</v>
       </c>
       <c r="R22">
-        <v>36.7484834157</v>
+        <v>115.668777494672</v>
       </c>
       <c r="S22">
-        <v>0.0007032626199569298</v>
+        <v>0.002101792491712879</v>
       </c>
       <c r="T22">
-        <v>0.0007032626199569294</v>
+        <v>0.002101792491712879</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1421</v>
+        <v>0.5639586666666667</v>
       </c>
       <c r="H23">
-        <v>0.4263</v>
+        <v>1.691876</v>
       </c>
       <c r="I23">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="J23">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>49.155044</v>
       </c>
       <c r="O23">
-        <v>0.2879216571700245</v>
+        <v>0.2784908820648457</v>
       </c>
       <c r="P23">
-        <v>0.2879216571700245</v>
+        <v>0.2784908820648457</v>
       </c>
       <c r="Q23">
-        <v>2.328310584133333</v>
+        <v>9.240471024727112</v>
       </c>
       <c r="R23">
-        <v>20.9547952572</v>
+        <v>83.16423922254401</v>
       </c>
       <c r="S23">
-        <v>0.0004010158472810219</v>
+        <v>0.00151115951394064</v>
       </c>
       <c r="T23">
-        <v>0.0004010158472810218</v>
+        <v>0.00151115951394064</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1421</v>
+        <v>0.5639586666666667</v>
       </c>
       <c r="H24">
-        <v>0.4263</v>
+        <v>1.691876</v>
       </c>
       <c r="I24">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="J24">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.486482333333334</v>
+        <v>11.91569833333333</v>
       </c>
       <c r="N24">
-        <v>16.459447</v>
+        <v>35.747095</v>
       </c>
       <c r="O24">
-        <v>0.09640986703912194</v>
+        <v>0.2025273340779806</v>
       </c>
       <c r="P24">
-        <v>0.09640986703912194</v>
+        <v>0.2025273340779806</v>
       </c>
       <c r="Q24">
-        <v>0.7796291395666668</v>
+        <v>6.719961344468889</v>
       </c>
       <c r="R24">
-        <v>7.016662256100001</v>
+        <v>60.47965210022001</v>
       </c>
       <c r="S24">
-        <v>0.0001342791816946004</v>
+        <v>0.001098962757616287</v>
       </c>
       <c r="T24">
-        <v>0.0001342791816946003</v>
+        <v>0.001098962757616287</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1421</v>
+        <v>0.5639586666666667</v>
       </c>
       <c r="H25">
-        <v>0.4263</v>
+        <v>1.691876</v>
       </c>
       <c r="I25">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="J25">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5741953333333334</v>
+        <v>0.4016486666666667</v>
       </c>
       <c r="N25">
-        <v>1.722586</v>
+        <v>1.204946</v>
       </c>
       <c r="O25">
-        <v>0.01008990686160069</v>
+        <v>0.006826694619183082</v>
       </c>
       <c r="P25">
-        <v>0.01008990686160069</v>
+        <v>0.006826694619183082</v>
       </c>
       <c r="Q25">
-        <v>0.08159315686666668</v>
+        <v>0.2265132465217778</v>
       </c>
       <c r="R25">
-        <v>0.7343384118000001</v>
+        <v>2.038619218696</v>
       </c>
       <c r="S25">
-        <v>1.405317192482681E-05</v>
+        <v>3.704331160164803E-05</v>
       </c>
       <c r="T25">
-        <v>1.40531719248268E-05</v>
+        <v>3.704331160164803E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1421</v>
+        <v>0.5639586666666667</v>
       </c>
       <c r="H26">
-        <v>0.4263</v>
+        <v>1.691876</v>
       </c>
       <c r="I26">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="J26">
-        <v>0.001392795009665468</v>
+        <v>0.005426244129561024</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.727753666666666</v>
+        <v>7.343594</v>
       </c>
       <c r="N26">
-        <v>17.183261</v>
+        <v>22.030782</v>
       </c>
       <c r="O26">
-        <v>0.1006495484513258</v>
+        <v>0.1248167311529276</v>
       </c>
       <c r="P26">
-        <v>0.1006495484513258</v>
+        <v>0.1248167311529276</v>
       </c>
       <c r="Q26">
-        <v>0.8139137960333332</v>
+        <v>4.141483480781334</v>
       </c>
       <c r="R26">
-        <v>7.3252241643</v>
+        <v>37.27335132703201</v>
       </c>
       <c r="S26">
-        <v>0.0001401841888080893</v>
+        <v>0.0006772860546895699</v>
       </c>
       <c r="T26">
-        <v>0.0001401841888080893</v>
+        <v>0.00067728605468957</v>
       </c>
     </row>
   </sheetData>
